--- a/data/std_codes.xlsx
+++ b/data/std_codes.xlsx
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0 - No Injury</t>
+          <t>No Injury</t>
         </is>
       </c>
     </row>
@@ -1751,7 +1751,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1 - Treated/Examined And Released</t>
+          <t>Treated/Examined And Released</t>
         </is>
       </c>
     </row>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2 - Treated And Transferred</t>
+          <t>Treated And Transferred</t>
         </is>
       </c>
     </row>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>4 - Treated And Admitted/Hospitalized</t>
+          <t>Treated And Admitted/Hospitalized</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>5 - Held For Observation</t>
+          <t>Held For Observation</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>6 - Left Without Being Seen</t>
+          <t>Left Without Being Seen</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>8 - Fatality Incl. Doa, Died In Er</t>
+          <t>Fatality Incl. Doa, Died In Er</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>9 - Unknown, Not Stated</t>
+          <t>Unknown, Not Stated</t>
         </is>
       </c>
     </row>
